--- a/18회차_실습체크리스트2_안다윤.xlsx
+++ b/18회차_실습체크리스트2_안다윤.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dayoonz/Desktop/fullstack/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED21168-58D9-8944-A3AB-B5CCCB38B071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="7280" yWindow="1320" windowWidth="21580" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -201,10 +193,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">git 주소 : </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -368,17 +356,20 @@
   <si>
     <t>05 인터페이스</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 주소 : https://github.com/lolddong/KB_exercise_questions.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -436,7 +427,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -472,7 +463,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -481,7 +472,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -489,7 +480,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -655,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,16 +683,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -728,12 +716,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,39 +745,39 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -797,31 +785,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,7 +817,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,14 +927,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1006,14 +994,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1073,14 +1061,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1140,14 +1128,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1207,14 +1195,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1274,14 +1262,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1341,14 +1329,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1408,14 +1396,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1475,14 +1463,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1542,14 +1530,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1609,14 +1597,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1676,14 +1664,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1705,13 +1693,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1743,14 +1731,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1772,13 +1760,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1810,14 +1798,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1839,13 +1827,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1877,14 +1865,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1906,13 +1894,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1944,14 +1932,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1973,13 +1961,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2011,14 +1999,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2040,13 +2028,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2078,14 +2066,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2107,13 +2095,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2145,14 +2133,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2174,13 +2162,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2212,14 +2200,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2241,13 +2229,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2279,14 +2267,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2308,13 +2296,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2346,14 +2334,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2375,13 +2363,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2413,14 +2401,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2442,13 +2430,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2480,14 +2468,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2509,13 +2497,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2547,14 +2535,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2576,13 +2564,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2614,14 +2602,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2643,13 +2631,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2681,14 +2669,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2710,13 +2698,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2748,14 +2736,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2777,13 +2765,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2815,14 +2803,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2844,13 +2832,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2882,14 +2870,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2911,13 +2899,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2949,14 +2937,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2978,13 +2966,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3016,14 +3004,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3045,13 +3033,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3083,14 +3071,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3112,13 +3100,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3150,14 +3138,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3179,13 +3167,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3217,14 +3205,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3246,13 +3234,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3284,14 +3272,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -3307,10 +3295,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3609,22 +3593,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.625" customWidth="1"/>
-    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -3635,26 +3619,26 @@
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -3676,188 +3660,188 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.5">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:6" ht="28">
+      <c r="A5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3869,28 +3853,28 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="A20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3900,13 +3884,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4202,13 +4186,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4224,13 +4208,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4246,13 +4230,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4268,13 +4252,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4290,13 +4274,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4312,13 +4296,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4334,13 +4318,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4356,13 +4340,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4378,13 +4362,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4400,13 +4384,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4422,13 +4406,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4444,13 +4428,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4466,13 +4450,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4488,13 +4472,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4510,13 +4494,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4532,13 +4516,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4554,13 +4538,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4576,13 +4560,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4598,13 +4582,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4620,13 +4604,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4642,13 +4626,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4664,13 +4648,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4686,13 +4670,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4708,13 +4692,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
